--- a/Data/sensory_data_recoded_Checked.xlsx
+++ b/Data/sensory_data_recoded_Checked.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Guinea-Pig-data_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC2EF6E-3D04-4AC5-9992-19B6221E4BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD119457-D75C-49C9-857F-31DFC6C77D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W49" sqref="W49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,7 +2773,7 @@
       <c r="J63" s="2">
         <v>8</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="K63" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
       <c r="J97" s="2">
         <v>8</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="K97" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5153,7 +5153,7 @@
       <c r="J131" s="2">
         <v>9</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K131" s="5" t="s">
         <v>54</v>
       </c>
     </row>
